--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB10.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB10.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
-    <sheet name="B10" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'B10'!$A$3:$F$45</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'B10'!$2:$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$A$3:$F$45</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">sheet1!$2:$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -507,144 +507,144 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,12 +934,12 @@
   <dimension ref="A2:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="22.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="1" bestFit="1" customWidth="1"/>
@@ -1327,541 +1327,541 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6" ht="8.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="42"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="42"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="42"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="43"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="44"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="45"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="44"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="46"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="44"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="44"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="45"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="44"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="46"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="42"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="42"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="42"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="42"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="42"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="45"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
     </row>
     <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="44"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="44"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="44"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="44"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="46"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="35"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
